--- a/reports/vivado/LoopUnrollingFactor2Solution/power/LoopUnrollingFactor2SetResetPowerReport.xlsx
+++ b/reports/vivado/LoopUnrollingFactor2Solution/power/LoopUnrollingFactor2SetResetPowerReport.xlsx
@@ -44,7 +44,7 @@
     <t/>
   </si>
   <si>
-    <t>firConvolutionLoopUnrollingFactor2_IP/U0/i_1_reg_167[3]_i_1_n_4</t>
+    <t>firConvolutionLoopUnrollingFactor2_IP/U0/accumulator_reg_140</t>
   </si>
   <si>
     <t>myclk</t>
@@ -175,7 +175,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>8.327162504428998E-6</v>
+        <v>3.1468659926758846E-6</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -201,22 +201,22 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>8.327162504428998E-6</v>
+        <v>3.068060095756664E-6</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>5.581395149230957</v>
+        <v>3.582089900970459</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>2.7906980514526367</v>
+        <v>1.7910449504852295</v>
       </c>
       <c r="E3" t="n" s="7">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="F3" t="n" s="7">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>11</v>
@@ -227,22 +227,22 @@
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>0.0</v>
+        <v>7.880596797349426E-8</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>13</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>0.2325579971075058</v>
+        <v>0.1492539942264557</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>5.813953876495361</v>
+        <v>3.7313430309295654</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" t="n" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>11</v>
